--- a/idis/expdata/90001.xlsx
+++ b/idis/expdata/90001.xlsx
@@ -813,7 +813,7 @@
         <v>66</v>
       </c>
       <c r="L2">
-        <v>2.187352589964236e-05</v>
+        <v>2.187352588386017e-05</v>
       </c>
       <c r="M2">
         <v>-0</v>
@@ -1010,7 +1010,7 @@
         <v>66</v>
       </c>
       <c r="L3">
-        <v>2.171627946110828e-05</v>
+        <v>2.171627945628786e-05</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -1207,7 +1207,7 @@
         <v>66</v>
       </c>
       <c r="L4">
-        <v>5.074248134023029e-05</v>
+        <v>5.074248131568596e-05</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -1404,7 +1404,7 @@
         <v>66</v>
       </c>
       <c r="L5">
-        <v>2.157210071592957e-05</v>
+        <v>2.157210071439315e-05</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1601,7 +1601,7 @@
         <v>66</v>
       </c>
       <c r="L6">
-        <v>5.093031042778075e-05</v>
+        <v>5.093031042050723e-05</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1798,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="L7">
-        <v>2.133627952106676e-05</v>
+        <v>2.133627952056863e-05</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1995,7 +1995,7 @@
         <v>66</v>
       </c>
       <c r="L8">
-        <v>5.093707987068237e-05</v>
+        <v>5.093707986836048e-05</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -2192,7 +2192,7 @@
         <v>66</v>
       </c>
       <c r="L9">
-        <v>0.0001231491411445762</v>
+        <v>0.0001231491411312949</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -2389,7 +2389,7 @@
         <v>66</v>
       </c>
       <c r="L10">
-        <v>2.103281443606841e-05</v>
+        <v>2.103281443590486e-05</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -2586,7 +2586,7 @@
         <v>66</v>
       </c>
       <c r="L11">
-        <v>5.072006580768103e-05</v>
+        <v>5.07200658069098e-05</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -2783,7 +2783,7 @@
         <v>66</v>
       </c>
       <c r="L12">
-        <v>0.0001235950831576007</v>
+        <v>0.0001235950831534122</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -2980,7 +2980,7 @@
         <v>66</v>
       </c>
       <c r="L13">
-        <v>0.0003057533503368427</v>
+        <v>0.0003057533503089107</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -3177,7 +3177,7 @@
         <v>66</v>
       </c>
       <c r="L14">
-        <v>2.080116606138175e-05</v>
+        <v>2.080116606132674e-05</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -3374,7 +3374,7 @@
         <v>66</v>
       </c>
       <c r="L15">
-        <v>5.030044373161815e-05</v>
+        <v>5.030044373135673e-05</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -3571,7 +3571,7 @@
         <v>66</v>
       </c>
       <c r="L16">
-        <v>0.0001231859055990928</v>
+        <v>0.0001231859055976953</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -3768,7 +3768,7 @@
         <v>66</v>
       </c>
       <c r="L17">
-        <v>0.0003069365844829154</v>
+        <v>0.0003069365844743376</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -3965,7 +3965,7 @@
         <v>66</v>
       </c>
       <c r="L18">
-        <v>2.040143184805933e-05</v>
+        <v>2.040143184804104e-05</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -4162,7 +4162,7 @@
         <v>66</v>
       </c>
       <c r="L19">
-        <v>4.976483944227303e-05</v>
+        <v>4.97648394421836e-05</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -4359,7 +4359,7 @@
         <v>66</v>
       </c>
       <c r="L20">
-        <v>0.0001221878901829389</v>
+        <v>0.0001221878901824595</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -4556,7 +4556,7 @@
         <v>66</v>
       </c>
       <c r="L21">
-        <v>0.0003057580651790062</v>
+        <v>0.0003057580651761667</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -4753,7 +4753,7 @@
         <v>66</v>
       </c>
       <c r="L22">
-        <v>0.0007633248409600876</v>
+        <v>0.000763324840940644</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -4950,7 +4950,7 @@
         <v>66</v>
       </c>
       <c r="L23">
-        <v>2.0048828256849e-05</v>
+        <v>2.004882825684299e-05</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -5147,7 +5147,7 @@
         <v>66</v>
       </c>
       <c r="L24">
-        <v>4.914512141111816e-05</v>
+        <v>4.914512141108791e-05</v>
       </c>
       <c r="M24">
         <v>-0</v>
@@ -5344,7 +5344,7 @@
         <v>66</v>
       </c>
       <c r="L25">
-        <v>0.0001208836765688465</v>
+        <v>0.0001208836765686813</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -5541,7 +5541,7 @@
         <v>66</v>
       </c>
       <c r="L26">
-        <v>0.0003029287424362681</v>
+        <v>0.0003029287424352947</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -5738,7 +5738,7 @@
         <v>66</v>
       </c>
       <c r="L27">
-        <v>0.0007597640240205937</v>
+        <v>0.0007597640240143011</v>
       </c>
       <c r="M27">
         <v>-0</v>
@@ -5935,7 +5935,7 @@
         <v>66</v>
       </c>
       <c r="L28">
-        <v>1.961255928589264e-05</v>
+        <v>1.961255928589078e-05</v>
       </c>
       <c r="M28">
         <v>-0</v>
@@ -6132,7 +6132,7 @@
         <v>66</v>
       </c>
       <c r="L29">
-        <v>4.833232927585363e-05</v>
+        <v>4.833232927584378e-05</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -6329,7 +6329,7 @@
         <v>66</v>
       </c>
       <c r="L30">
-        <v>0.0001191615765499697</v>
+        <v>0.000119161576549914</v>
       </c>
       <c r="M30">
         <v>-0</v>
@@ -6526,7 +6526,7 @@
         <v>66</v>
       </c>
       <c r="L31">
-        <v>0.000298400320386968</v>
+        <v>0.0002984003203866339</v>
       </c>
       <c r="M31">
         <v>-0</v>
@@ -6723,7 +6723,7 @@
         <v>66</v>
       </c>
       <c r="L32">
-        <v>0.0007492582136648539</v>
+        <v>0.0007492582136627357</v>
       </c>
       <c r="M32">
         <v>-0</v>
@@ -6920,7 +6920,7 @@
         <v>66</v>
       </c>
       <c r="L33">
-        <v>0.001884964979501396</v>
+        <v>0.001884964979486359</v>
       </c>
       <c r="M33">
         <v>-0</v>
@@ -7117,7 +7117,7 @@
         <v>66</v>
       </c>
       <c r="L34">
-        <v>1.897426054880446e-05</v>
+        <v>1.897426054880392e-05</v>
       </c>
       <c r="M34">
         <v>-0</v>
@@ -7314,7 +7314,7 @@
         <v>66</v>
       </c>
       <c r="L35">
-        <v>4.689078297812372e-05</v>
+        <v>4.689078297812064e-05</v>
       </c>
       <c r="M35">
         <v>-0</v>
@@ -7511,7 +7511,7 @@
         <v>66</v>
       </c>
       <c r="L36">
-        <v>0.000115879203916085</v>
+        <v>0.0001158792039160668</v>
       </c>
       <c r="M36">
         <v>-0</v>
@@ -7708,7 +7708,7 @@
         <v>66</v>
       </c>
       <c r="L37">
-        <v>0.0002896094240538605</v>
+        <v>0.0002896094240537485</v>
       </c>
       <c r="M37">
         <v>-0</v>
@@ -7905,7 +7905,7 @@
         <v>66</v>
       </c>
       <c r="L38">
-        <v>0.0007262154603695303</v>
+        <v>0.0007262154603688179</v>
       </c>
       <c r="M38">
         <v>-0</v>
@@ -8102,7 +8102,7 @@
         <v>66</v>
       </c>
       <c r="L39">
-        <v>0.001826657413964306</v>
+        <v>0.001826657413959459</v>
       </c>
       <c r="M39">
         <v>-0</v>
@@ -8299,7 +8299,7 @@
         <v>66</v>
       </c>
       <c r="L40">
-        <v>0.004696354356647255</v>
+        <v>0.004696354356608311</v>
       </c>
       <c r="M40">
         <v>-0</v>
@@ -8496,7 +8496,7 @@
         <v>66</v>
       </c>
       <c r="L41">
-        <v>4.430562005336418e-05</v>
+        <v>4.430562005336323e-05</v>
       </c>
       <c r="M41">
         <v>-0</v>
@@ -8693,7 +8693,7 @@
         <v>66</v>
       </c>
       <c r="L42">
-        <v>0.0001098132198447398</v>
+        <v>0.0001098132198447339</v>
       </c>
       <c r="M42">
         <v>-0</v>
@@ -8890,7 +8890,7 @@
         <v>66</v>
       </c>
       <c r="L43">
-        <v>0.000274074660448895</v>
+        <v>0.0002740746604488578</v>
       </c>
       <c r="M43">
         <v>-0</v>
@@ -9087,7 +9087,7 @@
         <v>66</v>
       </c>
       <c r="L44">
-        <v>0.0006862765510126378</v>
+        <v>0.0006862765510123979</v>
       </c>
       <c r="M44">
         <v>-0</v>
@@ -9284,7 +9284,7 @@
         <v>66</v>
       </c>
       <c r="L45">
-        <v>0.001724267028440505</v>
+        <v>0.001724267028438894</v>
       </c>
       <c r="M45">
         <v>-0</v>
@@ -9481,7 +9481,7 @@
         <v>66</v>
       </c>
       <c r="L46">
-        <v>0.004401543255141819</v>
+        <v>0.004401543255129847</v>
       </c>
       <c r="M46">
         <v>-0</v>
@@ -9678,7 +9678,7 @@
         <v>66</v>
       </c>
       <c r="L47">
-        <v>0.0001018536114449244</v>
+        <v>0.0001018536114449223</v>
       </c>
       <c r="M47">
         <v>-0</v>
@@ -9875,7 +9875,7 @@
         <v>66</v>
       </c>
       <c r="L48">
-        <v>0.0002543731389583429</v>
+        <v>0.0002543731389583291</v>
       </c>
       <c r="M48">
         <v>-0</v>
@@ -10072,7 +10072,7 @@
         <v>66</v>
       </c>
       <c r="L49">
-        <v>0.0006367792219674145</v>
+        <v>0.0006367792219673224</v>
       </c>
       <c r="M49">
         <v>-0</v>
@@ -10269,7 +10269,7 @@
         <v>66</v>
       </c>
       <c r="L50">
-        <v>0.001599131228108429</v>
+        <v>0.001599131228107804</v>
       </c>
       <c r="M50">
         <v>-0</v>
@@ -10466,7 +10466,7 @@
         <v>66</v>
       </c>
       <c r="L51">
-        <v>0.004060366244775836</v>
+        <v>0.004060366244771337</v>
       </c>
       <c r="M51">
         <v>-0</v>
@@ -10663,7 +10663,7 @@
         <v>66</v>
       </c>
       <c r="L52">
-        <v>0.01099211705658816</v>
+        <v>0.01099211705654797</v>
       </c>
       <c r="M52">
         <v>-0</v>
@@ -10860,7 +10860,7 @@
         <v>66</v>
       </c>
       <c r="L53">
-        <v>0.0002335356101184873</v>
+        <v>0.0002335356101184786</v>
       </c>
       <c r="M53">
         <v>-0</v>
@@ -11057,7 +11057,7 @@
         <v>66</v>
       </c>
       <c r="L54">
-        <v>0.0005853036774416522</v>
+        <v>0.000585303677441591</v>
       </c>
       <c r="M54">
         <v>-0</v>
@@ -11254,7 +11254,7 @@
         <v>66</v>
       </c>
       <c r="L55">
-        <v>0.001470367080346957</v>
+        <v>0.001470367080346524</v>
       </c>
       <c r="M55">
         <v>-0</v>
@@ -11451,7 +11451,7 @@
         <v>66</v>
       </c>
       <c r="L56">
-        <v>0.003721669469316258</v>
+        <v>0.003721669469313104</v>
       </c>
       <c r="M56">
         <v>-0</v>
@@ -11648,7 +11648,7 @@
         <v>66</v>
       </c>
       <c r="L57">
-        <v>0.009807292189706558</v>
+        <v>0.009807292189680549</v>
       </c>
       <c r="M57">
         <v>-0</v>
@@ -11845,7 +11845,7 @@
         <v>66</v>
       </c>
       <c r="L58">
-        <v>0.03351446038627146</v>
+        <v>0.0335144603858706</v>
       </c>
       <c r="M58">
         <v>-0</v>

--- a/idis/expdata/90001.xlsx
+++ b/idis/expdata/90001.xlsx
@@ -1416,7 +1416,7 @@
         <v>166</v>
       </c>
       <c r="M2">
-        <v>5.481075237597846e-06</v>
+        <v>2.122616665355496e-06</v>
       </c>
       <c r="N2">
         <v>7.851830412959411e-07</v>
@@ -1913,7 +1913,7 @@
         <v>166</v>
       </c>
       <c r="M3">
-        <v>1.402288895011163e-06</v>
+        <v>1.17306003169156e-06</v>
       </c>
       <c r="N3">
         <v>7.973602660943987e-07</v>
@@ -2410,7 +2410,7 @@
         <v>166</v>
       </c>
       <c r="M4">
-        <v>2.228840095046054e-06</v>
+        <v>1.689275014162372e-06</v>
       </c>
       <c r="N4">
         <v>1.874247777454956e-06</v>
@@ -2907,7 +2907,7 @@
         <v>166</v>
       </c>
       <c r="M5">
-        <v>8.117704934952084e-07</v>
+        <v>6.636360499018037e-07</v>
       </c>
       <c r="N5">
         <v>8.079876536404635e-07</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="M6">
-        <v>8.615755914747499e-07</v>
+        <v>9.221293844277916e-07</v>
       </c>
       <c r="N6">
         <v>1.908389457616939e-06</v>
@@ -3901,7 +3901,7 @@
         <v>166</v>
       </c>
       <c r="M7">
-        <v>4.761465036484052e-07</v>
+        <v>3.80123997509892e-07</v>
       </c>
       <c r="N7">
         <v>8.175006473014514e-07</v>
@@ -4398,7 +4398,7 @@
         <v>166</v>
       </c>
       <c r="M8">
-        <v>4.95347650995806e-07</v>
+        <v>5.225948990598964e-07</v>
       </c>
       <c r="N8">
         <v>1.939640604131176e-06</v>
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="M9">
-        <v>8.563543480731197e-07</v>
+        <v>7.823078814302465e-07</v>
       </c>
       <c r="N9">
         <v>4.630949675060669e-06</v>
@@ -5392,7 +5392,7 @@
         <v>166</v>
       </c>
       <c r="M10">
-        <v>2.805739226605088e-07</v>
+        <v>2.192756918499568e-07</v>
       </c>
       <c r="N10">
         <v>8.263684750057037e-07</v>
@@ -5889,7 +5889,7 @@
         <v>166</v>
       </c>
       <c r="M11">
-        <v>2.900977068192908e-07</v>
+        <v>3.02340885284579e-07</v>
       </c>
       <c r="N11">
         <v>1.969001732935511e-06</v>
@@ -6386,7 +6386,7 @@
         <v>166</v>
       </c>
       <c r="M12">
-        <v>4.391645499145015e-07</v>
+        <v>4.414829041892315e-07</v>
       </c>
       <c r="N12">
         <v>4.727854581524127e-06</v>
@@ -6883,7 +6883,7 @@
         <v>166</v>
       </c>
       <c r="M13">
-        <v>9.091765666630987e-07</v>
+        <v>6.895565225354149e-07</v>
       </c>
       <c r="N13">
         <v>1.162291303489366e-05</v>
@@ -7380,7 +7380,7 @@
         <v>166</v>
       </c>
       <c r="M14">
-        <v>1.653533974742079e-07</v>
+        <v>1.271121382781184e-07</v>
       </c>
       <c r="N14">
         <v>8.352078528965442e-07</v>
@@ -7877,7 +7877,7 @@
         <v>166</v>
       </c>
       <c r="M15">
-        <v>1.71220500897093e-07</v>
+        <v>1.768360718773681e-07</v>
       </c>
       <c r="N15">
         <v>1.997336696733599e-06</v>
@@ -8374,7 +8374,7 @@
         <v>166</v>
       </c>
       <c r="M16">
-        <v>2.561123620601716e-07</v>
+        <v>2.5637223037794e-07</v>
       </c>
       <c r="N16">
         <v>4.815206117931517e-06</v>
@@ -8871,7 +8871,7 @@
         <v>166</v>
       </c>
       <c r="M17">
-        <v>4.125130749147027e-07</v>
+        <v>3.85800323489781e-07</v>
       </c>
       <c r="N17">
         <v>1.188445593099236e-05</v>
@@ -9368,7 +9368,7 @@
         <v>166</v>
       </c>
       <c r="M18">
-        <v>9.722786556252346e-08</v>
+        <v>7.383780316196854e-08</v>
       </c>
       <c r="N18">
         <v>8.441426612485796e-07</v>
@@ -9865,7 +9865,7 @@
         <v>166</v>
       </c>
       <c r="M19">
-        <v>1.01267562760149e-07</v>
+        <v>1.03848144829637e-07</v>
       </c>
       <c r="N19">
         <v>2.023502136007834e-06</v>
@@ -10362,7 +10362,7 @@
         <v>166</v>
       </c>
       <c r="M20">
-        <v>1.513455671478889e-07</v>
+        <v>1.510062119943576e-07</v>
       </c>
       <c r="N20">
         <v>4.891902349397305e-06</v>
@@ -10859,7 +10859,7 @@
         <v>166</v>
       </c>
       <c r="M21">
-        <v>2.34868310599925e-07</v>
+        <v>2.241829322440327e-07</v>
       </c>
       <c r="N21">
         <v>1.200520081371801e-05</v>
@@ -11356,7 +11356,7 @@
         <v>166</v>
       </c>
       <c r="M22">
-        <v>4.3090039768788e-07</v>
+        <v>3.365328387852969e-07</v>
       </c>
       <c r="N22">
         <v>2.80740702633246e-05</v>
@@ -11853,7 +11853,7 @@
         <v>166</v>
       </c>
       <c r="M23">
-        <v>5.684787588262669e-08</v>
+        <v>4.257853268067945e-08</v>
       </c>
       <c r="N23">
         <v>8.485470607553976e-07</v>
@@ -12350,7 +12350,7 @@
         <v>166</v>
       </c>
       <c r="M24">
-        <v>5.968742516029757e-08</v>
+        <v>6.073497035383259e-08</v>
       </c>
       <c r="N24">
         <v>2.035485613556447e-06</v>
@@ -12847,7 +12847,7 @@
         <v>166</v>
       </c>
       <c r="M25">
-        <v>8.976999089026769e-08</v>
+        <v>8.926973047409578e-08</v>
       </c>
       <c r="N25">
         <v>4.929438866435761e-06</v>
@@ -13344,7 +13344,7 @@
         <v>166</v>
       </c>
       <c r="M26">
-        <v>1.386655802448605e-07</v>
+        <v>1.327996351545825e-07</v>
       </c>
       <c r="N26">
         <v>1.198658235416385e-05</v>
@@ -13841,7 +13841,7 @@
         <v>166</v>
       </c>
       <c r="M27">
-        <v>2.236234932060291e-07</v>
+        <v>1.960524824738411e-07</v>
       </c>
       <c r="N27">
         <v>2.834252193897663e-05</v>
@@ -14338,7 +14338,7 @@
         <v>166</v>
       </c>
       <c r="M28">
-        <v>3.28492212931174e-08</v>
+        <v>2.399886972420077e-08</v>
       </c>
       <c r="N28">
         <v>8.277584758380517e-07</v>
@@ -14835,7 +14835,7 @@
         <v>166</v>
       </c>
       <c r="M29">
-        <v>3.486078940241588e-08</v>
+        <v>3.506860369384034e-08</v>
       </c>
       <c r="N29">
         <v>1.987247567108793e-06</v>
@@ -15332,7 +15332,7 @@
         <v>166</v>
       </c>
       <c r="M30">
-        <v>5.303785050828546e-08</v>
+        <v>5.253415043502168e-08</v>
       </c>
       <c r="N30">
         <v>4.818995062939589e-06</v>
@@ -15829,7 +15829,7 @@
         <v>166</v>
       </c>
       <c r="M31">
-        <v>8.233446474067356e-08</v>
+        <v>7.91497751279485e-08</v>
       </c>
       <c r="N31">
         <v>1.163193709547013e-05</v>
@@ -16326,7 +16326,7 @@
         <v>166</v>
       </c>
       <c r="M32">
-        <v>1.311213847886615e-07</v>
+        <v>1.170344954934873e-07</v>
       </c>
       <c r="N32">
         <v>2.762216831654443e-05</v>
@@ -16823,7 +16823,7 @@
         <v>166</v>
       </c>
       <c r="M33">
-        <v>2.23910335254519e-07</v>
+        <v>1.573943083077134e-07</v>
       </c>
       <c r="N33">
         <v>5.727193408439183e-05</v>
@@ -17320,7 +17320,7 @@
         <v>166</v>
       </c>
       <c r="M34">
-        <v>2.092220727837661e-08</v>
+        <v>1.326542328957931e-08</v>
       </c>
       <c r="N34">
         <v>7.473423262806549e-07</v>
@@ -17817,7 +17817,7 @@
         <v>166</v>
       </c>
       <c r="M35">
-        <v>2.008784898615904e-08</v>
+        <v>2.005343016360244e-08</v>
       </c>
       <c r="N35">
         <v>1.800549309813141e-06</v>
@@ -18314,7 +18314,7 @@
         <v>166</v>
       </c>
       <c r="M36">
-        <v>3.106984536751386e-08</v>
+        <v>3.07704018522254e-08</v>
       </c>
       <c r="N36">
         <v>4.375386422944903e-06</v>
@@ -18811,7 +18811,7 @@
         <v>166</v>
       </c>
       <c r="M37">
-        <v>4.878153732317596e-08</v>
+        <v>4.71730409421527e-08</v>
       </c>
       <c r="N37">
         <v>1.053899526726157e-05</v>
@@ -19308,7 +19308,7 @@
         <v>166</v>
       </c>
       <c r="M38">
-        <v>7.773889632903651e-08</v>
+        <v>7.052422787356428e-08</v>
       </c>
       <c r="N38">
         <v>2.506212322885079e-05</v>
@@ -19805,7 +19805,7 @@
         <v>166</v>
       </c>
       <c r="M39">
-        <v>1.279001093509293e-07</v>
+        <v>9.620984229257263e-08</v>
       </c>
       <c r="N39">
         <v>5.347387227276816e-05</v>
@@ -20302,7 +20302,7 @@
         <v>166</v>
       </c>
       <c r="M40">
-        <v>2.520920067605097e-07</v>
+        <v>7.917235442128971e-08</v>
       </c>
       <c r="N40">
         <v>6.734774453022158e-05</v>
@@ -20799,7 +20799,7 @@
         <v>166</v>
       </c>
       <c r="M41">
-        <v>1.575996138858316e-08</v>
+        <v>1.157315393837423e-08</v>
       </c>
       <c r="N41">
         <v>1.476866106831366e-06</v>
@@ -21296,7 +21296,7 @@
         <v>166</v>
       </c>
       <c r="M42">
-        <v>1.830618315571112e-08</v>
+        <v>1.813811641775906e-08</v>
       </c>
       <c r="N42">
         <v>3.601917136323804e-06</v>
@@ -21793,7 +21793,7 @@
         <v>166</v>
       </c>
       <c r="M43">
-        <v>2.917870172618966e-08</v>
+        <v>2.82761023167301e-08</v>
       </c>
       <c r="N43">
         <v>8.701506264960567e-06</v>
@@ -22290,7 +22290,7 @@
         <v>166</v>
       </c>
       <c r="M44">
-        <v>4.688006985875018e-08</v>
+        <v>4.28694150961284e-08</v>
       </c>
       <c r="N44">
         <v>2.074162271626042e-05</v>
@@ -22787,7 +22787,7 @@
         <v>166</v>
       </c>
       <c r="M45">
-        <v>7.669016559001475e-08</v>
+        <v>5.954152544947307e-08</v>
       </c>
       <c r="N45">
         <v>4.516380194292111e-05</v>
@@ -23284,7 +23284,7 @@
         <v>166</v>
       </c>
       <c r="M46">
-        <v>1.311361986127704e-07</v>
+        <v>5.619854797780991e-08</v>
       </c>
       <c r="N46">
         <v>6.684503225725087e-05</v>
@@ -23781,7 +23781,7 @@
         <v>166</v>
       </c>
       <c r="M47">
-        <v>1.535767805267852e-08</v>
+        <v>1.123191501942229e-08</v>
       </c>
       <c r="N47">
         <v>2.784589420658446e-06</v>
@@ -24278,7 +24278,7 @@
         <v>166</v>
       </c>
       <c r="M48">
-        <v>1.870792278450663e-08</v>
+        <v>1.790163053625305e-08</v>
       </c>
       <c r="N48">
         <v>6.776797409456022e-06</v>
@@ -24775,7 +24775,7 @@
         <v>166</v>
       </c>
       <c r="M49">
-        <v>3.056728426258491e-08</v>
+        <v>2.776477565891097e-08</v>
       </c>
       <c r="N49">
         <v>1.625910869831942e-05</v>
@@ -25272,7 +25272,7 @@
         <v>166</v>
       </c>
       <c r="M50">
-        <v>5.026903248354051e-08</v>
+        <v>3.983053649731827e-08</v>
       </c>
       <c r="N50">
         <v>3.626471930460881e-05</v>
@@ -25769,7 +25769,7 @@
         <v>166</v>
       </c>
       <c r="M51">
-        <v>8.466525235413496e-08</v>
+        <v>4.288357832066657e-08</v>
       </c>
       <c r="N51">
         <v>6.140568964854911e-05</v>
@@ -26266,7 +26266,7 @@
         <v>166</v>
       </c>
       <c r="M52">
-        <v>1.60970361480228e-07</v>
+        <v>-2.183484840789077e-08</v>
       </c>
       <c r="N52">
         <v>-5.144997750921298e-05</v>
@@ -26763,7 +26763,7 @@
         <v>166</v>
       </c>
       <c r="M53">
-        <v>2.372725369368504e-08</v>
+        <v>1.470032721675386e-08</v>
       </c>
       <c r="N53">
         <v>4.962731892712784e-06</v>
@@ -27260,7 +27260,7 @@
         <v>166</v>
       </c>
       <c r="M54">
-        <v>3.93646948249892e-08</v>
+        <v>2.37115953109822e-08</v>
       </c>
       <c r="N54">
         <v>1.198583806218545e-05</v>
@@ -27757,7 +27757,7 @@
         <v>166</v>
       </c>
       <c r="M55">
-        <v>6.524816451228242e-08</v>
+        <v>3.571924749999152e-08</v>
       </c>
       <c r="N55">
         <v>2.740473675729918e-05</v>
@@ -28254,7 +28254,7 @@
         <v>166</v>
       </c>
       <c r="M56">
-        <v>1.097504552389504e-07</v>
+        <v>4.357922855539406e-08</v>
       </c>
       <c r="N56">
         <v>5.169913177434609e-05</v>
@@ -28751,7 +28751,7 @@
         <v>166</v>
       </c>
       <c r="M57">
-        <v>1.951081686126816e-07</v>
+        <v>7.854543112730592e-09</v>
       </c>
       <c r="N57">
         <v>1.504716874074269e-05</v>
@@ -29248,7 +29248,7 @@
         <v>166</v>
       </c>
       <c r="M58">
-        <v>5.380119221304262e-07</v>
+        <v>-2.092689551172915e-07</v>
       </c>
       <c r="N58">
         <v>-0.0007711762622188824</v>

--- a/idis/expdata/90001.xlsx
+++ b/idis/expdata/90001.xlsx
@@ -1044,7 +1044,7 @@
         <v>104</v>
       </c>
       <c r="M2">
-        <v>2.180604747951295e-06</v>
+        <v>1.877663592571628e-05</v>
       </c>
       <c r="N2">
         <v>2.069624632479319e-06</v>
@@ -1355,7 +1355,7 @@
         <v>104</v>
       </c>
       <c r="M3">
-        <v>1.195524444109426e-06</v>
+        <v>1.839369709999355e-05</v>
       </c>
       <c r="N3">
         <v>2.077729428921648e-06</v>
@@ -1666,7 +1666,7 @@
         <v>104</v>
       </c>
       <c r="M4">
-        <v>1.759393706306904e-06</v>
+        <v>2.706908677016405e-05</v>
       </c>
       <c r="N4">
         <v>5.094950729815872e-06</v>
@@ -1977,7 +1977,7 @@
         <v>104</v>
       </c>
       <c r="M5">
-        <v>6.728438417026013e-07</v>
+        <v>1.849671236272764e-05</v>
       </c>
       <c r="N5">
         <v>2.086020411276159e-06</v>
@@ -2288,7 +2288,7 @@
         <v>104</v>
       </c>
       <c r="M6">
-        <v>9.493409573041341e-07</v>
+        <v>2.609771470446522e-05</v>
       </c>
       <c r="N6">
         <v>5.111851087923322e-06</v>
@@ -2599,7 +2599,7 @@
         <v>104</v>
       </c>
       <c r="M7">
-        <v>3.840567031882363e-07</v>
+        <v>1.886448511293405e-05</v>
       </c>
       <c r="N7">
         <v>2.093946035411037e-06</v>
@@ -2910,7 +2910,7 @@
         <v>104</v>
       </c>
       <c r="M8">
-        <v>5.341056379088583e-07</v>
+        <v>2.623474026471613e-05</v>
       </c>
       <c r="N8">
         <v>5.133440403923701e-06</v>
@@ -3221,7 +3221,7 @@
         <v>104</v>
       </c>
       <c r="M9">
-        <v>8.234178348730494e-07</v>
+        <v>4.044546901209772e-05</v>
       </c>
       <c r="N9">
         <v>1.272704433660963e-05</v>
@@ -3532,7 +3532,7 @@
         <v>104</v>
       </c>
       <c r="M10">
-        <v>2.210139437733746e-07</v>
+        <v>1.939718683042685e-05</v>
       </c>
       <c r="N10">
         <v>2.101373336696957e-06</v>
@@ -3843,7 +3843,7 @@
         <v>104</v>
       </c>
       <c r="M11">
-        <v>3.075234871444034e-07</v>
+        <v>2.69896570010052e-05</v>
       </c>
       <c r="N11">
         <v>5.156631677617146e-06</v>
@@ -4154,7 +4154,7 @@
         <v>104</v>
       </c>
       <c r="M12">
-        <v>4.592121728640418e-07</v>
+        <v>4.030254453530736e-05</v>
       </c>
       <c r="N12">
         <v>1.277883348937353e-05</v>
@@ -4465,7 +4465,7 @@
         <v>104</v>
       </c>
       <c r="M13">
-        <v>7.592574426653265e-07</v>
+        <v>6.663587924059857e-05</v>
       </c>
       <c r="N13">
         <v>3.239996351623504e-05</v>
@@ -4776,7 +4776,7 @@
         <v>104</v>
       </c>
       <c r="M14">
-        <v>1.279052697328945e-07</v>
+        <v>2.005750344169658e-05</v>
       </c>
       <c r="N14">
         <v>2.108460122882923e-06</v>
@@ -5087,7 +5087,7 @@
         <v>104</v>
       </c>
       <c r="M15">
-        <v>1.792804351522097e-07</v>
+        <v>2.811391549858935e-05</v>
       </c>
       <c r="N15">
         <v>5.179755991017349e-06</v>
@@ -5398,7 +5398,7 @@
         <v>104</v>
       </c>
       <c r="M16">
-        <v>2.646528653741958e-07</v>
+        <v>4.150161888703477e-05</v>
       </c>
       <c r="N16">
         <v>1.283678909368399e-05</v>
@@ -5709,7 +5709,7 @@
         <v>104</v>
       </c>
       <c r="M17">
-        <v>4.163450671021928e-07</v>
+        <v>6.528927724225573e-05</v>
       </c>
       <c r="N17">
         <v>3.244403914170565e-05</v>
@@ -6020,7 +6020,7 @@
         <v>104</v>
       </c>
       <c r="M18">
-        <v>7.421167447924423e-08</v>
+        <v>2.079362359666537e-05</v>
       </c>
       <c r="N18">
         <v>2.114761229215163e-06</v>
@@ -6331,7 +6331,7 @@
         <v>104</v>
       </c>
       <c r="M19">
-        <v>1.050368257078146e-07</v>
+        <v>2.943062844063747e-05</v>
       </c>
       <c r="N19">
         <v>5.1995733107946e-06</v>
@@ -6642,7 +6642,7 @@
         <v>104</v>
       </c>
       <c r="M20">
-        <v>1.550657192137647e-07</v>
+        <v>4.344839569654125e-05</v>
       </c>
       <c r="N20">
         <v>1.288866284049419e-05</v>
@@ -6953,7 +6953,7 @@
         <v>104</v>
       </c>
       <c r="M21">
-        <v>2.389293837382123e-07</v>
+        <v>6.694644348747178e-05</v>
       </c>
       <c r="N21">
         <v>3.241981892064127e-05</v>
@@ -7264,7 +7264,7 @@
         <v>104</v>
       </c>
       <c r="M22">
-        <v>3.979110151285031e-07</v>
+        <v>0.0001114920520471812</v>
       </c>
       <c r="N22">
         <v>8.212717728262368e-05</v>
@@ -7575,7 +7575,7 @@
         <v>104</v>
       </c>
       <c r="M23">
-        <v>4.276127051560167e-08</v>
+        <v>2.140812271415313e-05</v>
       </c>
       <c r="N23">
         <v>2.11475263771588e-06</v>
@@ -7886,7 +7886,7 @@
         <v>104</v>
       </c>
       <c r="M24">
-        <v>6.131482887490866e-08</v>
+        <v>3.069682834311307e-05</v>
       </c>
       <c r="N24">
         <v>5.201972002398393e-06</v>
@@ -8197,7 +8197,7 @@
         <v>104</v>
       </c>
       <c r="M25">
-        <v>9.128588036375014e-08</v>
+        <v>4.570161983804575e-05</v>
       </c>
       <c r="N25">
         <v>1.289741867110112e-05</v>
@@ -8508,7 +8508,7 @@
         <v>104</v>
       </c>
       <c r="M26">
-        <v>1.402521883299105e-07</v>
+        <v>7.021624994978874e-05</v>
       </c>
       <c r="N26">
         <v>3.227454024837917e-05</v>
@@ -8819,7 +8819,7 @@
         <v>104</v>
       </c>
       <c r="M27">
-        <v>2.256674953808934e-07</v>
+        <v>0.000112978809456681</v>
       </c>
       <c r="N27">
         <v>8.156254465939796e-05</v>
@@ -9130,7 +9130,7 @@
         <v>104</v>
       </c>
       <c r="M28">
-        <v>2.408964577693156e-08</v>
+        <v>2.154905805500264e-05</v>
       </c>
       <c r="N28">
         <v>2.087257287965724e-06</v>
@@ -9441,7 +9441,7 @@
         <v>104</v>
       </c>
       <c r="M29">
-        <v>3.534313709637301e-08</v>
+        <v>3.16157124180306e-05</v>
       </c>
       <c r="N29">
         <v>5.139984524224637e-06</v>
@@ -9752,7 +9752,7 @@
         <v>104</v>
       </c>
       <c r="M30">
-        <v>5.351808505504978e-08</v>
+        <v>4.787385968739541e-05</v>
       </c>
       <c r="N30">
         <v>1.274914941623983e-05</v>
@@ -10063,7 +10063,7 @@
         <v>104</v>
       </c>
       <c r="M31">
-        <v>8.292499686948817e-08</v>
+        <v>7.41794042261358e-05</v>
       </c>
       <c r="N31">
         <v>3.177484673370751e-05</v>
@@ -10374,7 +10374,7 @@
         <v>104</v>
       </c>
       <c r="M32">
-        <v>1.319449670495493e-07</v>
+        <v>0.0001180295377252448</v>
       </c>
       <c r="N32">
         <v>8.004449369644783e-05</v>
@@ -10685,7 +10685,7 @@
         <v>104</v>
       </c>
       <c r="M33">
-        <v>2.219062153552614e-07</v>
+        <v>0.0001985031229490104</v>
       </c>
       <c r="N33">
         <v>0.0002025808998766785</v>
@@ -10996,7 +10996,7 @@
         <v>104</v>
       </c>
       <c r="M34">
-        <v>1.330967677610043e-08</v>
+        <v>2.127331310677434e-05</v>
       </c>
       <c r="N34">
         <v>1.999495950129498e-06</v>
@@ -11307,7 +11307,7 @@
         <v>104</v>
       </c>
       <c r="M35">
-        <v>2.018341577530883e-08</v>
+        <v>3.225984601845046e-05</v>
       </c>
       <c r="N35">
         <v>4.937680550087728e-06</v>
@@ -11618,7 +11618,7 @@
         <v>104</v>
       </c>
       <c r="M36">
-        <v>3.125553765489455e-08</v>
+        <v>4.995679835344514e-05</v>
       </c>
       <c r="N36">
         <v>1.226136938546625e-05</v>
@@ -11929,7 +11929,7 @@
         <v>104</v>
       </c>
       <c r="M37">
-        <v>4.910498639258053e-08</v>
+        <v>7.84861847666375e-05</v>
       </c>
       <c r="N37">
         <v>3.05143084362659e-05</v>
@@ -12240,7 +12240,7 @@
         <v>104</v>
       </c>
       <c r="M38">
-        <v>7.825431318465475e-08</v>
+        <v>0.0001250765540243636</v>
       </c>
       <c r="N38">
         <v>7.662947551790651e-05</v>
@@ -12551,7 +12551,7 @@
         <v>104</v>
       </c>
       <c r="M39">
-        <v>1.286164298562739e-07</v>
+        <v>0.0002055720532538448</v>
       </c>
       <c r="N39">
         <v>0.0001932388345052835</v>
@@ -12862,7 +12862,7 @@
         <v>104</v>
       </c>
       <c r="M40">
-        <v>2.24913408019122e-07</v>
+        <v>0.0003594868178387344</v>
       </c>
       <c r="N40">
         <v>0.0004935655629245462</v>
@@ -13173,7 +13173,7 @@
         <v>104</v>
       </c>
       <c r="M41">
-        <v>1.16423659556813e-08</v>
+        <v>3.324897419181269e-05</v>
       </c>
       <c r="N41">
         <v>4.599411136866458e-06</v>
@@ -13484,7 +13484,7 @@
         <v>104</v>
       </c>
       <c r="M42">
-        <v>1.839922005123036e-08</v>
+        <v>5.254560756478827e-05</v>
       </c>
       <c r="N42">
         <v>1.144458879561068e-05</v>
@@ -13795,7 +13795,7 @@
         <v>104</v>
       </c>
       <c r="M43">
-        <v>2.932061791179304e-08</v>
+        <v>8.373559738185595e-05</v>
       </c>
       <c r="N43">
         <v>2.850928491037799e-05</v>
@@ -14106,7 +14106,7 @@
         <v>104</v>
       </c>
       <c r="M44">
-        <v>4.70638426857295e-08</v>
+        <v>0.0001344077738822186</v>
       </c>
       <c r="N44">
         <v>7.147303571349989e-05</v>
@@ -14417,7 +14417,7 @@
         <v>104</v>
       </c>
       <c r="M45">
-        <v>7.678522939628204e-08</v>
+        <v>0.0002192879110850662</v>
       </c>
       <c r="N45">
         <v>0.0001798144917940944</v>
@@ -14728,7 +14728,7 @@
         <v>104</v>
       </c>
       <c r="M46">
-        <v>1.29695847538659e-07</v>
+        <v>0.0003703932606149993</v>
       </c>
       <c r="N46">
         <v>0.0004567723048487815</v>
@@ -15039,7 +15039,7 @@
         <v>104</v>
       </c>
       <c r="M47">
-        <v>1.137960416399231e-08</v>
+        <v>5.806760484546733e-05</v>
       </c>
       <c r="N47">
         <v>1.059292974100143e-05</v>
@@ -15350,7 +15350,7 @@
         <v>104</v>
       </c>
       <c r="M48">
-        <v>1.84865286857076e-08</v>
+        <v>9.43326698553153e-05</v>
       </c>
       <c r="N48">
         <v>2.644181554609103e-05</v>
@@ -15661,7 +15661,7 @@
         <v>104</v>
       </c>
       <c r="M49">
-        <v>3.011714491916125e-08</v>
+        <v>0.0001536811338107214</v>
       </c>
       <c r="N49">
         <v>6.625349209804793e-05</v>
@@ -15972,7 +15972,7 @@
         <v>104</v>
       </c>
       <c r="M50">
-        <v>4.942341354568237e-08</v>
+        <v>0.0002521967553990889</v>
       </c>
       <c r="N50">
         <v>0.0001664526382871094</v>
@@ -16283,7 +16283,7 @@
         <v>104</v>
       </c>
       <c r="M51">
-        <v>8.25418931595774e-08</v>
+        <v>0.0004211930367800777</v>
       </c>
       <c r="N51">
         <v>0.0004209922861865287</v>
@@ -16594,7 +16594,7 @@
         <v>104</v>
       </c>
       <c r="M52">
-        <v>1.421237347753009e-07</v>
+        <v>0.0007252260053304769</v>
       </c>
       <c r="N52">
         <v>0.00108483985020516</v>
@@ -16905,7 +16905,7 @@
         <v>104</v>
       </c>
       <c r="M53">
-        <v>1.512663902203672e-08</v>
+        <v>0.0001379173953078188</v>
       </c>
       <c r="N53">
         <v>2.451074990265923e-05</v>
@@ -17216,7 +17216,7 @@
         <v>104</v>
       </c>
       <c r="M54">
-        <v>2.540842325057881e-08</v>
+        <v>0.0002316617424725624</v>
       </c>
       <c r="N54">
         <v>6.137248837601463e-05</v>
@@ -17527,7 +17527,7 @@
         <v>104</v>
       </c>
       <c r="M55">
-        <v>4.262856607451388e-08</v>
+        <v>0.0003886666952347632</v>
       </c>
       <c r="N55">
         <v>0.0001540024593535445</v>
@@ -17838,7 +17838,7 @@
         <v>104</v>
       </c>
       <c r="M56">
-        <v>7.192474597235054e-08</v>
+        <v>0.0006557751267966408</v>
       </c>
       <c r="N56">
         <v>0.0003881404461201522</v>
@@ -18149,7 +18149,7 @@
         <v>104</v>
       </c>
       <c r="M57">
-        <v>1.232335995765216e-07</v>
+        <v>0.001123584495091115</v>
       </c>
       <c r="N57">
         <v>0.0009893505433696782</v>
@@ -18460,7 +18460,7 @@
         <v>104</v>
       </c>
       <c r="M58">
-        <v>2.10076857436031e-07</v>
+        <v>0.001915379414410622</v>
       </c>
       <c r="N58">
         <v>0.002601952063397812</v>
